--- a/data-raw/metadata/tisdale_release_fish_metadata.xlsx
+++ b/data-raw/metadata/tisdale_release_fish_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-tisdale-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6077C2A5-DFF7-4CFC-BB79-C839ABC2A670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9721A27-794C-4670-A54B-42761288D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="1390" windowWidth="19200" windowHeight="11170" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="1390" windowWidth="19200" windowHeight="11170" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -119,13 +119,16 @@
   </si>
   <si>
     <t>real</t>
+  </si>
+  <si>
+    <t>Tisdale RST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -143,6 +146,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -185,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,7 +220,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -718,6 +739,12 @@
       </c>
       <c r="H5" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -761,7 +788,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -782,6 +809,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/data-raw/metadata/tisdale_release_fish_metadata.xlsx
+++ b/data-raw/metadata/tisdale_release_fish_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-tisdale-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9721A27-794C-4670-A54B-42761288D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968BB2BF-B025-451F-B154-C5530F140476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1390" windowWidth="19200" windowHeight="11170" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2390" windowWidth="19200" windowHeight="11170" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Tisdale RST</t>
+  </si>
+  <si>
+    <t>release_fish</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
   <dimension ref="A1:AMG10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -683,6 +686,9 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
@@ -700,6 +706,9 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
@@ -714,6 +723,9 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
@@ -727,6 +739,9 @@
       </c>
       <c r="C5" t="s">
         <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
